--- a/unittest/打标签样例文件.xlsx
+++ b/unittest/打标签样例文件.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yk690\OneDrive\桌面\代码\test\unittest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F409068483C93EB9F90F4DE85B22DAD3F003E2CF" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2D7783C7-D954-4290-962F-157290AD7467}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>资产编号</t>
   </si>
@@ -23,29 +28,60 @@
     <t>标签</t>
   </si>
   <si>
-    <t>SH-A-02</t>
+    <t>zhengshutong9060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>封号,故障</t>
+    <t>引流号,纸巾,测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,16 +96,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,20 +410,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.265625" customWidth="1"/>
+    <col min="2" max="2" width="99.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,15 +431,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>